--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6061,7 +6061,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+          <t>'organization' or 'Homo sapiens' and 'bearer of' some 'owner role'</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -6330,7 +6330,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>person' is part of 'social environmental system'</t>
+          <t>'person' that 'is part of 'social environmental system'</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">

--- a/Population/BCIO_Population_Expanded.xlsx
+++ b/Population/BCIO_Population_Expanded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>A ability to comprehend spoken intervention language population statistic that is the percentage of people that have a ability to comprehend spoken intervention language in the population.</t>
+          <t>A(n) ability to comprehend spoken intervention language population statistic that is the percentage of people that have a ability to comprehend spoken intervention language in the population.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>A ability to comprehend spoken intervention language population statistic that is the proportion of people that have a ability to comprehend spoken intervention language in the population.</t>
+          <t>A(n) ability to comprehend spoken intervention language population statistic that is the proportion of people that have a ability to comprehend spoken intervention language in the population.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>A ability to read in intervention language population statistic that is the percentage of people that have a ability to read in intervention language in the population.</t>
+          <t>A(n) ability to read in intervention language population statistic that is the percentage of people that have a ability to read in intervention language in the population.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>A ability to read in intervention language population statistic that is the proportion of people that have a ability to read in intervention language in the population.</t>
+          <t>A(n) ability to read in intervention language population statistic that is the proportion of people that have a ability to read in intervention language in the population.</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>A ability to speak in intervention language population statistic that is the percentage of people that have a ability to speak in intervention language in the population.</t>
+          <t>A(n) ability to speak in intervention language population statistic that is the percentage of people that have a ability to speak in intervention language in the population.</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>A ability to speak in intervention language population statistic that is the proportion of people that have a ability to speak in intervention language in the population.</t>
+          <t>A(n) ability to speak in intervention language population statistic that is the proportion of people that have a ability to speak in intervention language in the population.</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>A ability to write in intervention language population statistic that is the percentage of people that have a ability to write in intervention language in the population.</t>
+          <t>A(n) ability to write in intervention language population statistic that is the percentage of people that have a ability to write in intervention language in the population.</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>A ability to write in intervention language population statistic that is the proportion of people that have a ability to write in intervention language in the population.</t>
+          <t>A(n) ability to write in intervention language population statistic that is the proportion of people that have a ability to write in intervention language in the population.</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>A achieved bachelor's degree or equivalent level population statistic that is the percentage of people that have achieved bachelor's degree or equivalent level in the population.</t>
+          <t>A(n) achieved bachelor's degree or equivalent level population statistic that is the percentage of people that have achieved bachelor's degree or equivalent level in the population.</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>A achieved bachelor's degree or equivalent level population statistic that is the proportion of people that have achieved bachelor's degree or equivalent level in the population.</t>
+          <t>A(n) achieved bachelor's degree or equivalent level population statistic that is the proportion of people that have achieved bachelor's degree or equivalent level in the population.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>A achieved doctoral or equivalent level education population statistic that is the percentage of people that have achieved doctoral or equivalent level education in the population.</t>
+          <t>A(n) achieved doctoral or equivalent level education population statistic that is the percentage of people that have achieved doctoral or equivalent level education in the population.</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>A achieved doctoral or equivalent level education population statistic that is the proportion of people that have achieved doctoral or equivalent level education in the population.</t>
+          <t>A(n) achieved doctoral or equivalent level education population statistic that is the proportion of people that have achieved doctoral or equivalent level education in the population.</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>A achieved early childhood education population statistic that is the percentage of people that have achieved early childhood education in the population.</t>
+          <t>A(n) achieved early childhood education population statistic that is the percentage of people that have achieved early childhood education in the population.</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>A achieved early childhood education population statistic that is the proportion of people that have achieved early childhood education in the population.</t>
+          <t>A(n) achieved early childhood education population statistic that is the proportion of people that have achieved early childhood education in the population.</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>A achieved lower secondary education population statistic that is the percentage of people that have achieved lower secondary education in the population.</t>
+          <t>A(n) achieved lower secondary education population statistic that is the percentage of people that have achieved lower secondary education in the population.</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>A achieved lower secondary education population statistic that is the proportion of people that have achieved lower secondary education in the population.</t>
+          <t>A(n) achieved lower secondary education population statistic that is the proportion of people that have achieved lower secondary education in the population.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>A achieved master's or equivalent level population statistic that is the percentage of people that have achieved master's or equivalent level in the population.</t>
+          <t>A(n) achieved master's or equivalent level population statistic that is the percentage of people that have achieved master's or equivalent level in the population.</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>A achieved master's or equivalent level population statistic that is the proportion of people that have achieved master's or equivalent level in the population.</t>
+          <t>A(n) achieved master's or equivalent level population statistic that is the proportion of people that have achieved master's or equivalent level in the population.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>A achieved primary education population statistic that is the percentage of people that have achieved primary education in the population.</t>
+          <t>A(n) achieved primary education population statistic that is the percentage of people that have achieved primary education in the population.</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>A achieved primary education population statistic that is the proportion of people that have achieved primary education in the population.</t>
+          <t>A(n) achieved primary education population statistic that is the proportion of people that have achieved primary education in the population.</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>A achieved upper secondary education  population statistic that is the percentage of people that have achieved upper secondary education  in the population.</t>
+          <t>A(n) achieved upper secondary education  population statistic that is the percentage of people that have achieved upper secondary education  in the population.</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>A achieved upper secondary education  population statistic that is the proportion of people that have achieved upper secondary education  in the population.</t>
+          <t>A(n) achieved upper secondary education  population statistic that is the proportion of people that have achieved upper secondary education  in the population.</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>A adoptive brother population statistic that is the percentage of people that are a adoptive brother in the population.</t>
+          <t>A(n) adoptive brother population statistic that is the percentage of people that are a adoptive brother in the population.</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>A adoptive brother population statistic that is the proportion of people that are a adoptive brother in the population.</t>
+          <t>A(n) adoptive brother population statistic that is the proportion of people that are a adoptive brother in the population.</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>A adoptive child population statistic that is the percentage of people that are a adoptive child in the population.</t>
+          <t>A(n) adoptive child population statistic that is the percentage of people that are a adoptive child in the population.</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>A adoptive child population statistic that is the proportion of people that are a adoptive child in the population.</t>
+          <t>A(n) adoptive child population statistic that is the proportion of people that are a adoptive child in the population.</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>A adoptive daughter population statistic that is the percentage of people that are a adoptive daughter in the population.</t>
+          <t>A(n) adoptive daughter population statistic that is the percentage of people that are a adoptive daughter in the population.</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>A adoptive daughter population statistic that is the proportion of people that are a adoptive daughter in the population.</t>
+          <t>A(n) adoptive daughter population statistic that is the proportion of people that are a adoptive daughter in the population.</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>A adoptive father population statistic that is the percentage of people that are a adoptive father in the population.</t>
+          <t>A(n) adoptive father population statistic that is the percentage of people that are a adoptive father in the population.</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>A adoptive father population statistic that is the proportion of people that are a adoptive father in the population.</t>
+          <t>A(n) adoptive father population statistic that is the proportion of people that are a adoptive father in the population.</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>A adoptive mother population statistic that is the percentage of people that are a adoptive mother in the population.</t>
+          <t>A(n) adoptive mother population statistic that is the percentage of people that are a adoptive mother in the population.</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>A adoptive mother population statistic that is the proportion of people that are a adoptive mother in the population.</t>
+          <t>A(n) adoptive mother population statistic that is the proportion of people that are a adoptive mother in the population.</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>A adoptive parent population statistic that is the percentage of people that are a adoptive parent in the population.</t>
+          <t>A(n) adoptive parent population statistic that is the percentage of people that are a adoptive parent in the population.</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>A adoptive parent population statistic that is the proportion of people that are a adoptive parent in the population.</t>
+          <t>A(n) adoptive parent population statistic that is the proportion of people that are a adoptive parent in the population.</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>A adoptive sibling population statistic that is the percentage of people that are a adoptive sibling in the population.</t>
+          <t>A(n) adoptive sibling population statistic that is the percentage of people that are a adoptive sibling in the population.</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>A adoptive sibling population statistic that is the proportion of people that are a adoptive sibling in the population.</t>
+          <t>A(n) adoptive sibling population statistic that is the proportion of people that are a adoptive sibling in the population.</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -13270,7 +13270,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>A adoptive sister population statistic that is the percentage of people that are a adoptive sister in the population.</t>
+          <t>A(n) adoptive sister population statistic that is the percentage of people that are a adoptive sister in the population.</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>A adoptive sister population statistic that is the proportion of people that are a adoptive sister in the population.</t>
+          <t>A(n) adoptive sister population statistic that is the proportion of people that are a adoptive sister in the population.</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>A adoptive son population statistic that is the percentage of people that are a adoptive son in the population.</t>
+          <t>A(n) adoptive son population statistic that is the percentage of people that are a adoptive son in the population.</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>A adoptive son population statistic that is the proportion of people that are a adoptive son in the population.</t>
+          <t>A(n) adoptive son population statistic that is the proportion of people that are a adoptive son in the population.</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>A adult population statistic that is the percentage of people that are a adult in the population.</t>
+          <t>A(n) adult population statistic that is the percentage of people that are a adult in the population.</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>A adult population statistic that is the proportion of people that are a adult in the population.</t>
+          <t>A(n) adult population statistic that is the proportion of people that are a adult in the population.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>A agreed rent-free occupier population statistic that is the percentage of people that are a agreed rent-free occupier in the population.</t>
+          <t>A(n) agreed rent-free occupier population statistic that is the percentage of people that are a agreed rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>A agreed rent-free occupier population statistic that is the proportion of people that are a agreed rent-free occupier in the population.</t>
+          <t>A(n) agreed rent-free occupier population statistic that is the proportion of people that are a agreed rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>A asexual population statistic that is the percentage of people that are asexual in the population.</t>
+          <t>A(n) asexual population statistic that is the percentage of people that are asexual in the population.</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>A asexual population statistic that is the proportion of people that are asexual in the population.</t>
+          <t>A(n) asexual population statistic that is the proportion of people that are asexual in the population.</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -14035,7 +14035,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>A aunt population statistic that is the percentage of people that are a aunt in the population.</t>
+          <t>A(n) aunt population statistic that is the percentage of people that are a aunt in the population.</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>A aunt population statistic that is the proportion of people that are a aunt in the population.</t>
+          <t>A(n) aunt population statistic that is the proportion of people that are a aunt in the population.</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>A biological brother population statistic that is the percentage of people that are a biological brother in the population.</t>
+          <t>A(n) biological brother population statistic that is the percentage of people that are a biological brother in the population.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>A biological brother population statistic that is the proportion of people that are a biological brother in the population.</t>
+          <t>A(n) biological brother population statistic that is the proportion of people that are a biological brother in the population.</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>A biological child population statistic that is the percentage of people that are a biological child in the population.</t>
+          <t>A(n) biological child population statistic that is the percentage of people that are a biological child in the population.</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>A biological child population statistic that is the proportion of people that are a biological child in the population.</t>
+          <t>A(n) biological child population statistic that is the proportion of people that are a biological child in the population.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -14494,7 +14494,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>A biological daughter population statistic that is the percentage of people that are a biological daughter in the population.</t>
+          <t>A(n) biological daughter population statistic that is the percentage of people that are a biological daughter in the population.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>A biological daughter population statistic that is the proportion of people that are a biological daughter in the population.</t>
+          <t>A(n) biological daughter population statistic that is the proportion of people that are a biological daughter in the population.</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>A biological father population statistic that is the percentage of people that are a biological father in the population.</t>
+          <t>A(n) biological father population statistic that is the percentage of people that are a biological father in the population.</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>A biological father population statistic that is the proportion of people that are a biological father in the population.</t>
+          <t>A(n) biological father population statistic that is the proportion of people that are a biological father in the population.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>A biological mother population statistic that is the percentage of people that are a biological mother in the population.</t>
+          <t>A(n) biological mother population statistic that is the percentage of people that are a biological mother in the population.</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>A biological mother population statistic that is the proportion of people that are a biological mother in the population.</t>
+          <t>A(n) biological mother population statistic that is the proportion of people that are a biological mother in the population.</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>A biological parent population statistic that is the percentage of people that are a biological parent in the population.</t>
+          <t>A(n) biological parent population statistic that is the percentage of people that are a biological parent in the population.</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>A biological parent population statistic that is the proportion of people that are a biological parent in the population.</t>
+          <t>A(n) biological parent population statistic that is the proportion of people that are a biological parent in the population.</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>A biological sex population statistic that is the percentage of people that have a biological sex in the population.</t>
+          <t>A(n) biological sex population statistic that is the percentage of people that have a biological sex in the population.</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>A biological sex population statistic that is the proportion of people that have a biological sex in the population.</t>
+          <t>A(n) biological sex population statistic that is the proportion of people that have a biological sex in the population.</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>A biological sibling population statistic that is the percentage of people that are a biological sibling in the population.</t>
+          <t>A(n) biological sibling population statistic that is the percentage of people that are a biological sibling in the population.</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>A biological sibling population statistic that is the proportion of people that are a biological sibling in the population.</t>
+          <t>A(n) biological sibling population statistic that is the proportion of people that are a biological sibling in the population.</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -15412,7 +15412,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>A biological sister population statistic that is the percentage of people that are a biological sister in the population.</t>
+          <t>A(n) biological sister population statistic that is the percentage of people that are a biological sister in the population.</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -15463,7 +15463,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>A biological sister population statistic that is the proportion of people that are a biological sister in the population.</t>
+          <t>A(n) biological sister population statistic that is the proportion of people that are a biological sister in the population.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -15565,7 +15565,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>A biological son population statistic that is the percentage of people that are a biological son in the population.</t>
+          <t>A(n) biological son population statistic that is the percentage of people that are a biological son in the population.</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>A biological son population statistic that is the proportion of people that are a biological son in the population.</t>
+          <t>A(n) biological son population statistic that is the proportion of people that are a biological son in the population.</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -15718,7 +15718,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>A bisexual population statistic that is the percentage of people that are bisexual in the population.</t>
+          <t>A(n) bisexual population statistic that is the percentage of people that are bisexual in the population.</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>A bisexual population statistic that is the proportion of people that are bisexual in the population.</t>
+          <t>A(n) bisexual population statistic that is the proportion of people that are bisexual in the population.</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>A caregiving role population statistic that is the percentage of people that have a caregiving role in the population.</t>
+          <t>A(n) caregiving role population statistic that is the percentage of people that have a caregiving role in the population.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -15922,7 +15922,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>A caregiving role population statistic that is the proportion of people that have a caregiving role in the population.</t>
+          <t>A(n) caregiving role population statistic that is the proportion of people that have a caregiving role in the population.</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>A caste membership population statistic that is the percentage of people that have a caste membership in the population.</t>
+          <t>A(n) caste membership population statistic that is the percentage of people that have a caste membership in the population.</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>A caste membership population statistic that is the proportion of people that have a caste membership in the population.</t>
+          <t>A(n) caste membership population statistic that is the proportion of people that have a caste membership in the population.</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>A child population statistic that is the percentage of people that are a child in the population.</t>
+          <t>A(n) child population statistic that is the percentage of people that are a child in the population.</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>A child population statistic that is the proportion of people that are a child in the population.</t>
+          <t>A(n) child population statistic that is the proportion of people that are a child in the population.</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -16330,7 +16330,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>A child relation population statistic that is the percentage of people that have a child relation in the population.</t>
+          <t>A(n) child relation population statistic that is the percentage of people that have a child relation in the population.</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>A child relation population statistic that is the proportion of people that have a child relation in the population.</t>
+          <t>A(n) child relation population statistic that is the proportion of people that have a child relation in the population.</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>A cisgender population statistic that is the percentage of people that are cisgender in the population.</t>
+          <t>A(n) cisgender population statistic that is the percentage of people that are cisgender in the population.</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>A cisgender population statistic that is the proportion of people that are cisgender in the population.</t>
+          <t>A(n) cisgender population statistic that is the proportion of people that are cisgender in the population.</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -16636,7 +16636,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>A country of birth population statistic that is the percentage of people that have a country of birth in the population.</t>
+          <t>A(n) country of birth population statistic that is the percentage of people that have a country of birth in the population.</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -16687,7 +16687,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>A country of birth population statistic that is the proportion of people that have a country of birth in the population.</t>
+          <t>A(n) country of birth population statistic that is the proportion of people that have a country of birth in the population.</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -16789,7 +16789,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>A cousin population statistic that is the percentage of people that are a cousin in the population.</t>
+          <t>A(n) cousin population statistic that is the percentage of people that are a cousin in the population.</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>A cousin population statistic that is the proportion of people that are a cousin in the population.</t>
+          <t>A(n) cousin population statistic that is the proportion of people that are a cousin in the population.</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -16942,7 +16942,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>A disabled population statistic that is the percentage of people that are disabled in the population.</t>
+          <t>A(n) disabled population statistic that is the percentage of people that are disabled in the population.</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>A disabled population statistic that is the proportion of people that are disabled in the population.</t>
+          <t>A(n) disabled population statistic that is the proportion of people that are disabled in the population.</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>A discipline of current programme of study or training population statistic that is the percentage of people that have a discipline of current programme of study or training in the population.</t>
+          <t>A(n) discipline of current programme of study or training population statistic that is the percentage of people that have a discipline of current programme of study or training in the population.</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>A discipline of current programme of study or training population statistic that is the proportion of people that have a discipline of current programme of study or training in the population.</t>
+          <t>A(n) discipline of current programme of study or training population statistic that is the proportion of people that have a discipline of current programme of study or training in the population.</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>A discipline of highest level of formal educational qualification achieved population statistic that is the percentage of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
+          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the percentage of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>A discipline of highest level of formal educational qualification achieved population statistic that is the proportion of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
+          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the proportion of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>A divorced or separated population statistic that is the percentage of people that are divorced or separated in the population.</t>
+          <t>A(n) divorced or separated population statistic that is the percentage of people that are divorced or separated in the population.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>A divorced or separated population statistic that is the proportion of people that are divorced or separated in the population.</t>
+          <t>A(n) divorced or separated population statistic that is the proportion of people that are divorced or separated in the population.</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>A doctoral student role population statistic that is the percentage of people that are a doctoral student role in the population.</t>
+          <t>A(n) doctoral student role population statistic that is the percentage of people that are a doctoral student role in the population.</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -17605,7 +17605,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>A doctoral student role population statistic that is the proportion of people that are a doctoral student role in the population.</t>
+          <t>A(n) doctoral student role population statistic that is the proportion of people that are a doctoral student role in the population.</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -17707,7 +17707,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>A employed population statistic that is the percentage of people that are employed in the population.</t>
+          <t>A(n) employed population statistic that is the percentage of people that are employed in the population.</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>A employed population statistic that is the proportion of people that are employed in the population.</t>
+          <t>A(n) employed population statistic that is the proportion of people that are employed in the population.</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>A employed full time population statistic that is the percentage of people that are employed full time in the population.</t>
+          <t>A(n) employed full time population statistic that is the percentage of people that are employed full time in the population.</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -17911,7 +17911,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>A employed full time population statistic that is the proportion of people that are employed full time in the population.</t>
+          <t>A(n) employed full time population statistic that is the proportion of people that are employed full time in the population.</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>A employed in shift work population statistic that is the percentage of people that are employed in shift work in the population.</t>
+          <t>A(n) employed in shift work population statistic that is the percentage of people that are employed in shift work in the population.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -18064,7 +18064,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>A employed in shift work population statistic that is the proportion of people that are employed in shift work in the population.</t>
+          <t>A(n) employed in shift work population statistic that is the proportion of people that are employed in shift work in the population.</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>A employed part time population statistic that is the percentage of people that are employed part time in the population.</t>
+          <t>A(n) employed part time population statistic that is the percentage of people that are employed part time in the population.</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>A employed part time population statistic that is the proportion of people that are employed part time in the population.</t>
+          <t>A(n) employed part time population statistic that is the proportion of people that are employed part time in the population.</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -18319,7 +18319,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>A employment status population statistic that is the percentage of people that have a employment status in the population.</t>
+          <t>A(n) employment status population statistic that is the percentage of people that have a employment status in the population.</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>A employment status population statistic that is the proportion of people that have a employment status in the population.</t>
+          <t>A(n) employment status population statistic that is the proportion of people that have a employment status in the population.</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>A ethnic group membership population statistic that is the percentage of people that have a ethnic group membership in the population.</t>
+          <t>A(n) ethnic group membership population statistic that is the percentage of people that have a ethnic group membership in the population.</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -18523,7 +18523,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>A ethnic group membership population statistic that is the proportion of people that have a ethnic group membership in the population.</t>
+          <t>A(n) ethnic group membership population statistic that is the proportion of people that have a ethnic group membership in the population.</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -18625,7 +18625,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>A expertise discipline population statistic that is the percentage of people that have a expertise discipline in the population.</t>
+          <t>A(n) expertise discipline population statistic that is the percentage of people that have a expertise discipline in the population.</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -18676,7 +18676,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>A expertise discipline population statistic that is the proportion of people that have a expertise discipline in the population.</t>
+          <t>A(n) expertise discipline population statistic that is the proportion of people that have a expertise discipline in the population.</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>A family member population statistic that is the percentage of people that are a family member in the population.</t>
+          <t>A(n) family member population statistic that is the percentage of people that are a family member in the population.</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -18829,7 +18829,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>A family member population statistic that is the proportion of people that are a family member in the population.</t>
+          <t>A(n) family member population statistic that is the proportion of people that are a family member in the population.</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -18931,7 +18931,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>A father population statistic that is the percentage of people that are a father in the population.</t>
+          <t>A(n) father population statistic that is the percentage of people that are a father in the population.</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>A father population statistic that is the proportion of people that are a father in the population.</t>
+          <t>A(n) father population statistic that is the proportion of people that are a father in the population.</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19084,7 +19084,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>A female biological sex population statistic that is the percentage of people that have a female biological sex in the population.</t>
+          <t>A(n) female biological sex population statistic that is the percentage of people that have a female biological sex in the population.</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19135,7 +19135,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>A female biological sex population statistic that is the proportion of people that have a female biological sex in the population.</t>
+          <t>A(n) female biological sex population statistic that is the proportion of people that have a female biological sex in the population.</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -19237,7 +19237,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>A female gender population statistic that is the percentage of people that have a female gender in the population.</t>
+          <t>A(n) female gender population statistic that is the percentage of people that have a female gender in the population.</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>A female gender population statistic that is the proportion of people that have a female gender in the population.</t>
+          <t>A(n) female gender population statistic that is the proportion of people that have a female gender in the population.</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19390,7 +19390,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>A foster brother population statistic that is the percentage of people that are a foster brother in the population.</t>
+          <t>A(n) foster brother population statistic that is the percentage of people that are a foster brother in the population.</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>A foster brother population statistic that is the proportion of people that are a foster brother in the population.</t>
+          <t>A(n) foster brother population statistic that is the proportion of people that are a foster brother in the population.</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -19543,7 +19543,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>A foster child population statistic that is the percentage of people that are a foster child in the population.</t>
+          <t>A(n) foster child population statistic that is the percentage of people that are a foster child in the population.</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -19594,7 +19594,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>A foster child population statistic that is the proportion of people that are a foster child in the population.</t>
+          <t>A(n) foster child population statistic that is the proportion of people that are a foster child in the population.</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -19696,7 +19696,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>A foster daughter population statistic that is the percentage of people that are a foster daughter in the population.</t>
+          <t>A(n) foster daughter population statistic that is the percentage of people that are a foster daughter in the population.</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>A foster daughter population statistic that is the proportion of people that are a foster daughter in the population.</t>
+          <t>A(n) foster daughter population statistic that is the proportion of people that are a foster daughter in the population.</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -19849,7 +19849,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>A foster father population statistic that is the percentage of people that are a foster father in the population.</t>
+          <t>A(n) foster father population statistic that is the percentage of people that are a foster father in the population.</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>A foster father population statistic that is the proportion of people that are a foster father in the population.</t>
+          <t>A(n) foster father population statistic that is the proportion of people that are a foster father in the population.</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -20002,7 +20002,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>A foster mother population statistic that is the percentage of people that are a foster mother in the population.</t>
+          <t>A(n) foster mother population statistic that is the percentage of people that are a foster mother in the population.</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -20053,7 +20053,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>A foster mother population statistic that is the proportion of people that are a foster mother in the population.</t>
+          <t>A(n) foster mother population statistic that is the proportion of people that are a foster mother in the population.</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -20155,7 +20155,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>A foster parent population statistic that is the percentage of people that are a foster parent in the population.</t>
+          <t>A(n) foster parent population statistic that is the percentage of people that are a foster parent in the population.</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -20206,7 +20206,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>A foster parent population statistic that is the proportion of people that are a foster parent in the population.</t>
+          <t>A(n) foster parent population statistic that is the proportion of people that are a foster parent in the population.</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -20308,7 +20308,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>A foster sibling population statistic that is the percentage of people that are a foster sibling in the population.</t>
+          <t>A(n) foster sibling population statistic that is the percentage of people that are a foster sibling in the population.</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>A foster sibling population statistic that is the proportion of people that are a foster sibling in the population.</t>
+          <t>A(n) foster sibling population statistic that is the proportion of people that are a foster sibling in the population.</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -20461,7 +20461,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>A foster sister population statistic that is the percentage of people that are a foster sister in the population.</t>
+          <t>A(n) foster sister population statistic that is the percentage of people that are a foster sister in the population.</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -20512,7 +20512,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>A foster sister population statistic that is the proportion of people that are a foster sister in the population.</t>
+          <t>A(n) foster sister population statistic that is the proportion of people that are a foster sister in the population.</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -20614,7 +20614,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>A foster son population statistic that is the percentage of people that are a foster son in the population.</t>
+          <t>A(n) foster son population statistic that is the percentage of people that are a foster son in the population.</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -20665,7 +20665,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>A foster son population statistic that is the proportion of people that are a foster son in the population.</t>
+          <t>A(n) foster son population statistic that is the proportion of people that are a foster son in the population.</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>A gender identity population statistic that is the percentage of people that have a gender identity in the population.</t>
+          <t>A(n) gender identity population statistic that is the percentage of people that have a gender identity in the population.</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -20818,7 +20818,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>A gender identity population statistic that is the proportion of people that have a gender identity in the population.</t>
+          <t>A(n) gender identity population statistic that is the proportion of people that have a gender identity in the population.</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>A graduate student role population statistic that is the percentage of people that have a graduate student role in the population.</t>
+          <t>A(n) graduate student role population statistic that is the percentage of people that have a graduate student role in the population.</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -20971,7 +20971,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>A graduate student role population statistic that is the proportion of people that have a graduate student role in the population.</t>
+          <t>A(n) graduate student role population statistic that is the proportion of people that have a graduate student role in the population.</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>A grandfather population statistic that is the percentage of people that are a grandfather in the population.</t>
+          <t>A(n) grandfather population statistic that is the percentage of people that are a grandfather in the population.</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -21124,7 +21124,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>A grandfather population statistic that is the proportion of people that are a grandfather in the population.</t>
+          <t>A(n) grandfather population statistic that is the proportion of people that are a grandfather in the population.</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>A grandmother population statistic that is the percentage of people that are a grandmother in the population.</t>
+          <t>A(n) grandmother population statistic that is the percentage of people that are a grandmother in the population.</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>A grandmother population statistic that is the proportion of people that are a grandmother in the population.</t>
+          <t>A(n) grandmother population statistic that is the proportion of people that are a grandmother in the population.</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>A grandparent population statistic that is the percentage of people that are a grandparent in the population.</t>
+          <t>A(n) grandparent population statistic that is the percentage of people that are a grandparent in the population.</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>A grandparent population statistic that is the proportion of people that are a grandparent in the population.</t>
+          <t>A(n) grandparent population statistic that is the proportion of people that are a grandparent in the population.</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -21532,7 +21532,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>A having enacted a behaviour population statistic that is the percentage of people that have having enacted a behaviour in the population.</t>
+          <t>A(n) having enacted a behaviour population statistic that is the percentage of people that have having enacted a behaviour in the population.</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>A having enacted a behaviour population statistic that is the proportion of people that have having enacted a behaviour in the population.</t>
+          <t>A(n) having enacted a behaviour population statistic that is the proportion of people that have having enacted a behaviour in the population.</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>A health insurance policy holder role population statistic that is the percentage of people that have a health insurance policy holder role in the population.</t>
+          <t>A(n) health insurance policy holder role population statistic that is the percentage of people that have a health insurance policy holder role in the population.</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>A health insurance policy holder role population statistic that is the proportion of people that have a health insurance policy holder role in the population.</t>
+          <t>A(n) health insurance policy holder role population statistic that is the proportion of people that have a health insurance policy holder role in the population.</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -21838,7 +21838,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>A health status attribute population statistic that is the percentage of people that have a health status attribute in the population.</t>
+          <t>A(n) health status attribute population statistic that is the percentage of people that have a health status attribute in the population.</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -21889,7 +21889,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>A health status attribute population statistic that is the proportion of people that have a health status attribute in the population.</t>
+          <t>A(n) health status attribute population statistic that is the proportion of people that have a health status attribute in the population.</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -21991,7 +21991,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>A heterosexual population statistic that is the percentage of people that are heterosexual in the population.</t>
+          <t>A(n) heterosexual population statistic that is the percentage of people that are heterosexual in the population.</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -22042,7 +22042,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>A heterosexual population statistic that is the proportion of people that are heterosexual in the population.</t>
+          <t>A(n) heterosexual population statistic that is the proportion of people that are heterosexual in the population.</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -22144,7 +22144,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>A higher education student role population statistic that is the percentage of people that have a higher education student role in the population.</t>
+          <t>A(n) higher education student role population statistic that is the percentage of people that have a higher education student role in the population.</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -22195,7 +22195,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>A higher education student role population statistic that is the proportion of people that have a higher education student role in the population.</t>
+          <t>A(n) higher education student role population statistic that is the proportion of people that have a higher education student role in the population.</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved population statistic that is the percentage of people that have a highest level of formal educational qualification achieved in the population.</t>
+          <t>A(n) highest level of formal educational qualification achieved population statistic that is the percentage of people that have a highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>A highest level of formal educational qualification achieved population statistic that is the proportion of people that have a highest level of formal educational qualification achieved in the population.</t>
+          <t>A(n) highest level of formal educational qualification achieved population statistic that is the proportion of people that have a highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -22450,7 +22450,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>A history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
+          <t>A(n) history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -22501,7 +22501,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>A history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
+          <t>A(n) history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -22603,7 +22603,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>A history of exposure to childhood maltreatment population statistic that is the percentage of people that have a history of exposure to childhood maltreatment in the population.</t>
+          <t>A(n) history of exposure to childhood maltreatment population statistic that is the percentage of people that have a history of exposure to childhood maltreatment in the population.</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>A history of exposure to childhood maltreatment population statistic that is the proportion of people that have a history of exposure to childhood maltreatment in the population.</t>
+          <t>A(n) history of exposure to childhood maltreatment population statistic that is the proportion of people that have a history of exposure to childhood maltreatment in the population.</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -22756,7 +22756,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>A homeless person population statistic that is the percentage of people that are a homeless person in the population.</t>
+          <t>A(n) homeless person population statistic that is the percentage of people that are a homeless person in the population.</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>A homeless person population statistic that is the proportion of people that are a homeless person in the population.</t>
+          <t>A(n) homeless person population statistic that is the proportion of people that are a homeless person in the population.</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>A homemaker status population statistic that is the percentage of people that have a homemaker status in the population.</t>
+          <t>A(n) homemaker status population statistic that is the percentage of people that have a homemaker status in the population.</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -22960,7 +22960,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>A homemaker status population statistic that is the proportion of people that have a homemaker status in the population.</t>
+          <t>A(n) homemaker status population statistic that is the proportion of people that have a homemaker status in the population.</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -23062,7 +23062,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>A homosexual population statistic that is the percentage of people that are homosexual in the population.</t>
+          <t>A(n) homosexual population statistic that is the percentage of people that are homosexual in the population.</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>A homosexual population statistic that is the proportion of people that are homosexual in the population.</t>
+          <t>A(n) homosexual population statistic that is the proportion of people that are homosexual in the population.</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -23215,7 +23215,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>A household income population statistic that is the mean value of household income in the population.</t>
+          <t>A(n) household income population statistic that is the mean value of household income in the population.</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>A household income population statistic that is the minimum value of household income in the population.</t>
+          <t>A(n) household income population statistic that is the minimum value of household income in the population.</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -23317,7 +23317,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>A household income population statistic that is the maximum value of household income in the population.</t>
+          <t>A(n) household income population statistic that is the maximum value of household income in the population.</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>A household income population statistic that is the median value of household income in the population.</t>
+          <t>A(n) household income population statistic that is the median value of household income in the population.</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -23419,7 +23419,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>A household income population statistic that is the percentage value of household income in the population.</t>
+          <t>A(n) household income population statistic that is the percentage value of household income in the population.</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>A household income population statistic that is the proportion of individuals having a household income in the population.</t>
+          <t>A(n) household income population statistic that is the proportion of individuals having a household income in the population.</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -23572,7 +23572,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>A human age population statistic that is the mean value of human age in the population.</t>
+          <t>A(n) human age population statistic that is the mean value of human age in the population.</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>A human age population statistic that is the minimum value of human age in the population.</t>
+          <t>A(n) human age population statistic that is the minimum value of human age in the population.</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>A human age population statistic that is the maximum value of human age in the population.</t>
+          <t>A(n) human age population statistic that is the maximum value of human age in the population.</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>A human age population statistic that is the median value of human age in the population.</t>
+          <t>A(n) human age population statistic that is the median value of human age in the population.</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -23827,7 +23827,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>A immigrant population statistic that is the percentage of people that are a immigrant in the population.</t>
+          <t>A(n) immigrant population statistic that is the percentage of people that are a immigrant in the population.</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -23878,7 +23878,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>A immigrant population statistic that is the proportion of people that are a immigrant in the population.</t>
+          <t>A(n) immigrant population statistic that is the proportion of people that are a immigrant in the population.</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>A in a legal marriage or union population statistic that is the percentage of people that are in a legal marriage or union in the population.</t>
+          <t>A(n) in a legal marriage or union population statistic that is the percentage of people that are in a legal marriage or union in the population.</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>A in a legal marriage or union population statistic that is the proportion of people that are in a legal marriage or union in the population.</t>
+          <t>A(n) in a legal marriage or union population statistic that is the proportion of people that are in a legal marriage or union in the population.</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -24133,7 +24133,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>A in a stable or common law relationship population statistic that is the percentage of people that are in a stable or common law relationship in the population.</t>
+          <t>A(n) in a stable or common law relationship population statistic that is the percentage of people that are in a stable or common law relationship in the population.</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>A in a stable or common law relationship population statistic that is the proportion of people that are in a stable or common law relationship in the population.</t>
+          <t>A(n) in a stable or common law relationship population statistic that is the proportion of people that are in a stable or common law relationship in the population.</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>A in permanent employment population statistic that is the percentage of people that are in permanent employment in the population.</t>
+          <t>A(n) in permanent employment population statistic that is the percentage of people that are in permanent employment in the population.</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -24337,7 +24337,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>A in permanent employment population statistic that is the proportion of people that are in permanent employment in the population.</t>
+          <t>A(n) in permanent employment population statistic that is the proportion of people that are in permanent employment in the population.</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>A in short term or temporary employment with known conditions population statistic that is the percentage of people that are in short term or temporary employment with known conditions in the population.</t>
+          <t>A(n) in short term or temporary employment with known conditions population statistic that is the percentage of people that are in short term or temporary employment with known conditions in the population.</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>A in short term or temporary employment with known conditions population statistic that is the proportion of people that are in short term or temporary employment with known conditions in the population.</t>
+          <t>A(n) in short term or temporary employment with known conditions population statistic that is the proportion of people that are in short term or temporary employment with known conditions in the population.</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -24592,7 +24592,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>A in uncertain employment population statistic that is the percentage of people that are in uncertain employment in the population.</t>
+          <t>A(n) in uncertain employment population statistic that is the percentage of people that are in uncertain employment in the population.</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>A in uncertain employment population statistic that is the proportion of people that are in uncertain employment in the population.</t>
+          <t>A(n) in uncertain employment population statistic that is the proportion of people that are in uncertain employment in the population.</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -24745,7 +24745,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>A income-related welfare benefit population statistic that is the percentage of people that have income-related welfare benefit in the population.</t>
+          <t>A(n) income-related welfare benefit population statistic that is the percentage of people that have income-related welfare benefit in the population.</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>A income-related welfare benefit population statistic that is the proportion of people that have income-related welfare benefit in the population.</t>
+          <t>A(n) income-related welfare benefit population statistic that is the proportion of people that have income-related welfare benefit in the population.</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -24898,7 +24898,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>A independently wealthy status population statistic that is the percentage of people that have independently wealthy status in the population.</t>
+          <t>A(n) independently wealthy status population statistic that is the percentage of people that have independently wealthy status in the population.</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -24949,7 +24949,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>A independently wealthy status population statistic that is the proportion of people that have independently wealthy status in the population.</t>
+          <t>A(n) independently wealthy status population statistic that is the proportion of people that have independently wealthy status in the population.</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -25051,7 +25051,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>A individual human behaviour population statistic that is the mean value of individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the mean value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -25102,7 +25102,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>A individual human behaviour population statistic that is the minimum value of individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the minimum value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -25153,7 +25153,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>A individual human behaviour population statistic that is the maximum value of individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the maximum value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -25204,7 +25204,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>A individual human behaviour population statistic that is the median value of individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the median value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>A individual human behaviour population statistic that is the percentage value of individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the percentage value of individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>A individual human behaviour population statistic that is the proportion of individuals having a individual human behaviour in the population.</t>
+          <t>A(n) individual human behaviour population statistic that is the proportion of individuals having a individual human behaviour in the population.</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -25408,7 +25408,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the mean value of individual income in the population.</t>
+          <t>A(n) individual income population statistic that is the mean value of individual income in the population.</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -25459,7 +25459,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the minimum value of individual income in the population.</t>
+          <t>A(n) individual income population statistic that is the minimum value of individual income in the population.</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -25510,7 +25510,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the maximum value of individual income in the population.</t>
+          <t>A(n) individual income population statistic that is the maximum value of individual income in the population.</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -25561,7 +25561,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the median value of individual income in the population.</t>
+          <t>A(n) individual income population statistic that is the median value of individual income in the population.</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -25612,7 +25612,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the percentage value of individual income in the population.</t>
+          <t>A(n) individual income population statistic that is the percentage value of individual income in the population.</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -25663,7 +25663,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the proportion of individuals having a individual income in the population.</t>
+          <t>A(n) individual income population statistic that is the proportion of individuals having a individual income in the population.</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -25765,7 +25765,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>A influencer role population statistic that is the percentage of people that have a influencer role in the population.</t>
+          <t>A(n) influencer role population statistic that is the percentage of people that have a influencer role in the population.</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -25816,7 +25816,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>A influencer role population statistic that is the proportion of people that have a influencer role in the population.</t>
+          <t>A(n) influencer role population statistic that is the proportion of people that have a influencer role in the population.</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -25918,7 +25918,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>A informal education student role population statistic that is the percentage of people that have a informal education student role in the population.</t>
+          <t>A(n) informal education student role population statistic that is the percentage of people that have a informal education student role in the population.</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -25969,7 +25969,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>A informal education student role population statistic that is the proportion of people that have a informal education student role in the population.</t>
+          <t>A(n) informal education student role population statistic that is the proportion of people that have a informal education student role in the population.</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -26071,7 +26071,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>A inpatient role population statistic that is the percentage of people that have a inpatient role in the population.</t>
+          <t>A(n) inpatient role population statistic that is the percentage of people that have a inpatient role in the population.</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -26122,7 +26122,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>A inpatient role population statistic that is the proportion of people that have a inpatient role in the population.</t>
+          <t>A(n) inpatient role population statistic that is the proportion of people that have a inpatient role in the population.</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -26224,7 +26224,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>A insured party role population statistic that is the percentage of people that have a insured party role in the population.</t>
+          <t>A(n) insured party role population statistic that is the percentage of people that have a insured party role in the population.</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -26275,7 +26275,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>A insured party role population statistic that is the proportion of people that have a insured party role in the population.</t>
+          <t>A(n) insured party role population statistic that is the proportion of people that have a insured party role in the population.</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -26377,7 +26377,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>A interpersonal role population statistic that is the percentage of people that have a interpersonal role in the population.</t>
+          <t>A(n) interpersonal role population statistic that is the percentage of people that have a interpersonal role in the population.</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -26428,7 +26428,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>A interpersonal role population statistic that is the proportion of people that have a interpersonal role in the population.</t>
+          <t>A(n) interpersonal role population statistic that is the proportion of people that have a interpersonal role in the population.</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -26530,7 +26530,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the mean value of language proficiency in the population.</t>
+          <t>A(n) language proficiency population statistic that is the mean value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the minimum value of language proficiency in the population.</t>
+          <t>A(n) language proficiency population statistic that is the minimum value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -26632,7 +26632,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the maximum value of language proficiency in the population.</t>
+          <t>A(n) language proficiency population statistic that is the maximum value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -26683,7 +26683,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the median value of language proficiency in the population.</t>
+          <t>A(n) language proficiency population statistic that is the median value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -26734,7 +26734,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the percentage value of language proficiency in the population.</t>
+          <t>A(n) language proficiency population statistic that is the percentage value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -26785,7 +26785,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the proportion of individuals having a language proficiency in the population.</t>
+          <t>A(n) language proficiency population statistic that is the proportion of individuals having a language proficiency in the population.</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -26887,7 +26887,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>A linguistic capability population statistic that is the mean value of linguistic capability in the population.</t>
+          <t>A(n) linguistic capability population statistic that is the mean value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>A linguistic capability population statistic that is the minimum value of linguistic capability in the population.</t>
+          <t>A(n) linguistic capability population statistic that is the minimum value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>A linguistic capability population statistic that is the maximum value of linguistic capability in the population.</t>
+          <t>A(n) linguistic capability population statistic that is the maximum value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -27040,7 +27040,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>A linguistic capability population statistic that is the median value of linguistic capability in the population.</t>
+          <t>A(n) linguistic capability population statistic that is the median value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -27091,7 +27091,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>A linguistic capability population statistic that is the percentage value of linguistic capability in the population.</t>
+          <t>A(n) linguistic capability population statistic that is the percentage value of linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -27142,7 +27142,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>A linguistic capability population statistic that is the proportion of individuals having a linguistic capability in the population.</t>
+          <t>A(n) linguistic capability population statistic that is the proportion of individuals having a linguistic capability in the population.</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -27244,7 +27244,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>A long-term disabled population statistic that is the percentage of people that are long-term disabled in the population.</t>
+          <t>A(n) long-term disabled population statistic that is the percentage of people that are long-term disabled in the population.</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -27295,7 +27295,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>A long-term disabled population statistic that is the proportion of people that are long-term disabled in the population.</t>
+          <t>A(n) long-term disabled population statistic that is the proportion of people that are long-term disabled in the population.</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>A male biological sex population statistic that is the percentage of people that have a male biological sex in the population.</t>
+          <t>A(n) male biological sex population statistic that is the percentage of people that have a male biological sex in the population.</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -27448,7 +27448,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>A male biological sex population statistic that is the proportion of people that have a male biological sex in the population.</t>
+          <t>A(n) male biological sex population statistic that is the proportion of people that have a male biological sex in the population.</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>A male gender population statistic that is the percentage of people that have a male gender in the population.</t>
+          <t>A(n) male gender population statistic that is the percentage of people that have a male gender in the population.</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -27601,7 +27601,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>A male gender population statistic that is the proportion of people that have a male gender in the population.</t>
+          <t>A(n) male gender population statistic that is the proportion of people that have a male gender in the population.</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -27703,7 +27703,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>A masters student role population statistic that is the percentage of people that have a masters student role in the population.</t>
+          <t>A(n) masters student role population statistic that is the percentage of people that have a masters student role in the population.</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -27754,7 +27754,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>A masters student role population statistic that is the proportion of people that have a masters student role in the population.</t>
+          <t>A(n) masters student role population statistic that is the proportion of people that have a masters student role in the population.</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -27856,7 +27856,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>A medication use status population statistic that is the percentage of people that have medication use status in the population.</t>
+          <t>A(n) medication use status population statistic that is the percentage of people that have medication use status in the population.</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -27907,7 +27907,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>A medication use status population statistic that is the proportion of people that have medication use status in the population.</t>
+          <t>A(n) medication use status population statistic that is the proportion of people that have medication use status in the population.</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -28009,7 +28009,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>A member of a multi-person household population statistic that is the percentage of people that are a member of a multi-person household in the population.</t>
+          <t>A(n) member of a multi-person household population statistic that is the percentage of people that are a member of a multi-person household in the population.</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -28060,7 +28060,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>A member of a multi-person household population statistic that is the proportion of people that are a member of a multi-person household in the population.</t>
+          <t>A(n) member of a multi-person household population statistic that is the proportion of people that are a member of a multi-person household in the population.</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>A member of a multi-person household all related population statistic that is the percentage of people that are a member of a multi-person household all related in the population.</t>
+          <t>A(n) member of a multi-person household all related population statistic that is the percentage of people that are a member of a multi-person household all related in the population.</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -28213,7 +28213,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>A member of a multi-person household all related population statistic that is the proportion of people that are a member of a multi-person household all related in the population.</t>
+          <t>A(n) member of a multi-person household all related population statistic that is the proportion of people that are a member of a multi-person household all related in the population.</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -28315,7 +28315,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>A member of a multi-person household not related population statistic that is the percentage of people that are a member of a multi-person household not related in the population.</t>
+          <t>A(n) member of a multi-person household not related population statistic that is the percentage of people that are a member of a multi-person household not related in the population.</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -28366,7 +28366,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>A member of a multi-person household not related population statistic that is the proportion of people that are a member of a multi-person household not related in the population.</t>
+          <t>A(n) member of a multi-person household not related population statistic that is the proportion of people that are a member of a multi-person household not related in the population.</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>A member of a multi-person household some related population statistic that is the percentage of people that are a member of a multi-person household some related in the population.</t>
+          <t>A(n) member of a multi-person household some related population statistic that is the percentage of people that are a member of a multi-person household some related in the population.</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -28519,7 +28519,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>A member of a multi-person household some related population statistic that is the proportion of people that are a member of a multi-person household some related in the population.</t>
+          <t>A(n) member of a multi-person household some related population statistic that is the proportion of people that are a member of a multi-person household some related in the population.</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -28621,7 +28621,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>A member of a multi-person multi-generational household population statistic that is the percentage of people that are a member of a multi-person multi-generational household in the population.</t>
+          <t>A(n) member of a multi-person multi-generational household population statistic that is the percentage of people that are a member of a multi-person multi-generational household in the population.</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -28672,7 +28672,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>A member of a multi-person multi-generational household population statistic that is the proportion of people that are a member of a multi-person multi-generational household in the population.</t>
+          <t>A(n) member of a multi-person multi-generational household population statistic that is the proportion of people that are a member of a multi-person multi-generational household in the population.</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -28774,7 +28774,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>A member of a one person household population statistic that is the percentage of people that are a member of a one person household in the population.</t>
+          <t>A(n) member of a one person household population statistic that is the percentage of people that are a member of a one person household in the population.</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>A member of a one person household population statistic that is the proportion of people that are a member of a one person household in the population.</t>
+          <t>A(n) member of a one person household population statistic that is the proportion of people that are a member of a one person household in the population.</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -28927,7 +28927,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>A mental capability population statistic that is the mean value of mental capability in the population.</t>
+          <t>A(n) mental capability population statistic that is the mean value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -28978,7 +28978,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>A mental capability population statistic that is the minimum value of mental capability in the population.</t>
+          <t>A(n) mental capability population statistic that is the minimum value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -29029,7 +29029,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>A mental capability population statistic that is the maximum value of mental capability in the population.</t>
+          <t>A(n) mental capability population statistic that is the maximum value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -29080,7 +29080,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>A mental capability population statistic that is the median value of mental capability in the population.</t>
+          <t>A(n) mental capability population statistic that is the median value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -29131,7 +29131,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>A mental capability population statistic that is the percentage value of mental capability in the population.</t>
+          <t>A(n) mental capability population statistic that is the percentage value of mental capability in the population.</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -29182,7 +29182,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>A mental capability population statistic that is the proportion of individuals having a mental capability in the population.</t>
+          <t>A(n) mental capability population statistic that is the proportion of individuals having a mental capability in the population.</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -29284,7 +29284,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>A mother population statistic that is the percentage of people that are a mother in the population.</t>
+          <t>A(n) mother population statistic that is the percentage of people that are a mother in the population.</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -29335,7 +29335,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>A mother population statistic that is the proportion of people that are a mother in the population.</t>
+          <t>A(n) mother population statistic that is the proportion of people that are a mother in the population.</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>A nephew population statistic that is the percentage of people that are a nephew in the population.</t>
+          <t>A(n) nephew population statistic that is the percentage of people that are a nephew in the population.</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -29488,7 +29488,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>A nephew population statistic that is the proportion of people that are a nephew in the population.</t>
+          <t>A(n) nephew population statistic that is the proportion of people that are a nephew in the population.</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -29590,7 +29590,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>A niece population statistic that is the percentage of people that are a niece in the population.</t>
+          <t>A(n) niece population statistic that is the percentage of people that are a niece in the population.</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -29641,7 +29641,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>A niece population statistic that is the proportion of people that are a niece in the population.</t>
+          <t>A(n) niece population statistic that is the proportion of people that are a niece in the population.</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -29743,7 +29743,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>A non-gendered identity population statistic that is the percentage of people that have a non-gendered identity in the population.</t>
+          <t>A(n) non-gendered identity population statistic that is the percentage of people that have a non-gendered identity in the population.</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -29794,7 +29794,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>A non-gendered identity population statistic that is the proportion of people that have a non-gendered identity in the population.</t>
+          <t>A(n) non-gendered identity population statistic that is the proportion of people that have a non-gendered identity in the population.</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -29896,7 +29896,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>A nonbinary gender population statistic that is the percentage of people that have a nonbinary gender in the population.</t>
+          <t>A(n) nonbinary gender population statistic that is the percentage of people that have a nonbinary gender in the population.</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>A nonbinary gender population statistic that is the proportion of people that have a nonbinary gender in the population.</t>
+          <t>A(n) nonbinary gender population statistic that is the proportion of people that have a nonbinary gender in the population.</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -30049,7 +30049,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>A not seeking employment population statistic that is the percentage of people that are not seeking employment in the population.</t>
+          <t>A(n) not seeking employment population statistic that is the percentage of people that are not seeking employment in the population.</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -30100,7 +30100,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>A not seeking employment population statistic that is the proportion of people that are not seeking employment in the population.</t>
+          <t>A(n) not seeking employment population statistic that is the proportion of people that are not seeking employment in the population.</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -30202,7 +30202,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>A not working for health reasons population statistic that is the percentage of people that are not working for health reasons in the population.</t>
+          <t>A(n) not working for health reasons population statistic that is the percentage of people that are not working for health reasons in the population.</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -30253,7 +30253,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>A not working for health reasons population statistic that is the proportion of people that are not working for health reasons in the population.</t>
+          <t>A(n) not working for health reasons population statistic that is the proportion of people that are not working for health reasons in the population.</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -30355,7 +30355,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>A number of years in education completed population statistic that is the mean number of number of years in education completed in the population.</t>
+          <t>A(n) number of years in education completed population statistic that is the mean number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -30406,7 +30406,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>A number of years in education completed population statistic that is the minimum number of number of years in education completed in the population.</t>
+          <t>A(n) number of years in education completed population statistic that is the minimum number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -30457,7 +30457,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>A number of years in education completed population statistic that is the maximum number of number of years in education completed in the population.</t>
+          <t>A(n) number of years in education completed population statistic that is the maximum number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -30508,7 +30508,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>A number of years in education completed population statistic that is the median number of number of years in education completed in the population.</t>
+          <t>A(n) number of years in education completed population statistic that is the median number of number of years in education completed in the population.</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -30610,7 +30610,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>A occupational role population statistic that is the percentage of people that have a occupational role in the population.</t>
+          <t>A(n) occupational role population statistic that is the percentage of people that have a occupational role in the population.</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>A occupational role population statistic that is the proportion of people that have a occupational role in the population.</t>
+          <t>A(n) occupational role population statistic that is the proportion of people that have a occupational role in the population.</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -30763,7 +30763,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>A occupier of employer-provided housing population statistic that is the percentage of people that are a occupier of employer-provided housing in the population.</t>
+          <t>A(n) occupier of employer-provided housing population statistic that is the percentage of people that are a occupier of employer-provided housing in the population.</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -30814,7 +30814,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>A occupier of employer-provided housing population statistic that is the proportion of people that are a occupier of employer-provided housing in the population.</t>
+          <t>A(n) occupier of employer-provided housing population statistic that is the proportion of people that are a occupier of employer-provided housing in the population.</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -30916,7 +30916,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>A organisational role population statistic that is the percentage of people that have a organisational role in the population.</t>
+          <t>A(n) organisational role population statistic that is the percentage of people that have a organisational role in the population.</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>A organisational role population statistic that is the proportion of people that have a organisational role in the population.</t>
+          <t>A(n) organisational role population statistic that is the proportion of people that have a organisational role in the population.</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -31069,7 +31069,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>A other sexual orientation population statistic that is the percentage of people that have a other sexual orientation in the population.</t>
+          <t>A(n) other sexual orientation population statistic that is the percentage of people that have a other sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -31120,7 +31120,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>A other sexual orientation population statistic that is the proportion of people that have a other sexual orientation in the population.</t>
+          <t>A(n) other sexual orientation population statistic that is the proportion of people that have a other sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -31222,7 +31222,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>A outpatient role population statistic that is the percentage of people that have a outpatient role in the population.</t>
+          <t>A(n) outpatient role population statistic that is the percentage of people that have a outpatient role in the population.</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>A outpatient role population statistic that is the proportion of people that have a outpatient role in the population.</t>
+          <t>A(n) outpatient role population statistic that is the proportion of people that have a outpatient role in the population.</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -31375,7 +31375,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>A owner population statistic that is the percentage of people that are a owner in the population.</t>
+          <t>A(n) owner population statistic that is the percentage of people that are a owner in the population.</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -31426,7 +31426,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>A owner population statistic that is the proportion of people that are a owner in the population.</t>
+          <t>A(n) owner population statistic that is the proportion of people that are a owner in the population.</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -31528,7 +31528,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>A owner-occupier population statistic that is the percentage of people that are a owner-occupier in the population.</t>
+          <t>A(n) owner-occupier population statistic that is the percentage of people that are a owner-occupier in the population.</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -31579,7 +31579,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>A owner-occupier population statistic that is the proportion of people that are a owner-occupier in the population.</t>
+          <t>A(n) owner-occupier population statistic that is the proportion of people that are a owner-occupier in the population.</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -31681,7 +31681,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>A parent population statistic that is the percentage of people that are a parent in the population.</t>
+          <t>A(n) parent population statistic that is the percentage of people that are a parent in the population.</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -31732,7 +31732,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>A parent population statistic that is the proportion of people that are a parent in the population.</t>
+          <t>A(n) parent population statistic that is the proportion of people that are a parent in the population.</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -31834,7 +31834,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>A parental role population statistic that is the percentage of people that have a parental role in the population.</t>
+          <t>A(n) parental role population statistic that is the percentage of people that have a parental role in the population.</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -31885,7 +31885,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>A parental role population statistic that is the proportion of people that have a parental role in the population.</t>
+          <t>A(n) parental role population statistic that is the proportion of people that have a parental role in the population.</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -31987,7 +31987,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>A past behaviour  population statistic that is the mean value of past behaviour  in the population.</t>
+          <t>A(n) past behaviour  population statistic that is the mean value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -32038,7 +32038,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>A past behaviour  population statistic that is the minimum value of past behaviour  in the population.</t>
+          <t>A(n) past behaviour  population statistic that is the minimum value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -32089,7 +32089,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>A past behaviour  population statistic that is the maximum value of past behaviour  in the population.</t>
+          <t>A(n) past behaviour  population statistic that is the maximum value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -32140,7 +32140,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>A past behaviour  population statistic that is the median value of past behaviour  in the population.</t>
+          <t>A(n) past behaviour  population statistic that is the median value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -32191,7 +32191,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>A past behaviour  population statistic that is the percentage value of past behaviour  in the population.</t>
+          <t>A(n) past behaviour  population statistic that is the percentage value of past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -32242,7 +32242,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>A past behaviour  population statistic that is the proportion of individuals having a past behaviour  in the population.</t>
+          <t>A(n) past behaviour  population statistic that is the proportion of individuals having a past behaviour  in the population.</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -32344,7 +32344,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>A patient role population statistic that is the percentage of people that have a patient role in the population.</t>
+          <t>A(n) patient role population statistic that is the percentage of people that have a patient role in the population.</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -32395,7 +32395,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>A patient role population statistic that is the proportion of people that have a patient role in the population.</t>
+          <t>A(n) patient role population statistic that is the proportion of people that have a patient role in the population.</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -32497,7 +32497,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>A personal history of behavioural lapse population statistic that is the mean value of personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the mean value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -32548,7 +32548,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>A personal history of behavioural lapse population statistic that is the minimum value of personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the minimum value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -32599,7 +32599,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>A personal history of behavioural lapse population statistic that is the maximum value of personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the maximum value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -32650,7 +32650,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>A personal history of behavioural lapse population statistic that is the median value of personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the median value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -32701,7 +32701,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>A personal history of behavioural lapse population statistic that is the percentage value of personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the percentage value of personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -32752,7 +32752,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>A personal history of behavioural lapse population statistic that is the proportion of individuals having a personal history of behavioural lapse in the population.</t>
+          <t>A(n) personal history of behavioural lapse population statistic that is the proportion of individuals having a personal history of behavioural lapse in the population.</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -32854,7 +32854,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>A personal history of events that influence behaviour  population statistic that is the mean value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the mean value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -32905,7 +32905,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>A personal history of events that influence behaviour  population statistic that is the minimum value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the minimum value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -32956,7 +32956,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>A personal history of events that influence behaviour  population statistic that is the maximum value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the maximum value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -33007,7 +33007,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>A personal history of events that influence behaviour  population statistic that is the median value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the median value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -33058,7 +33058,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>A personal history of events that influence behaviour  population statistic that is the percentage value of personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the percentage value of personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -33109,7 +33109,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>A personal history of events that influence behaviour  population statistic that is the proportion of individuals having a personal history of events that influence behaviour  in the population.</t>
+          <t>A(n) personal history of events that influence behaviour  population statistic that is the proportion of individuals having a personal history of events that influence behaviour  in the population.</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -33211,7 +33211,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the mean value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome population statistic that is the mean value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -33262,7 +33262,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the minimum value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome population statistic that is the minimum value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -33313,7 +33313,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the maximum value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome population statistic that is the maximum value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -33364,7 +33364,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the median value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome population statistic that is the median value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the percentage value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome population statistic that is the percentage value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -33466,7 +33466,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
@@ -33568,7 +33568,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -33619,7 +33619,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -33670,7 +33670,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -33772,7 +33772,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -33823,7 +33823,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A(n) personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -33925,7 +33925,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>A personal history of same intervention exposure population statistic that is the mean value of personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the mean value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -33976,7 +33976,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>A personal history of same intervention exposure population statistic that is the minimum value of personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the minimum value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -34027,7 +34027,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>A personal history of same intervention exposure population statistic that is the maximum value of personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the maximum value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -34078,7 +34078,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>A personal history of same intervention exposure population statistic that is the median value of personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the median value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -34129,7 +34129,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>A personal history of same intervention exposure population statistic that is the percentage value of personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the percentage value of personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -34180,7 +34180,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>A personal history of same intervention exposure population statistic that is the proportion of individuals having a personal history of same intervention exposure in the population.</t>
+          <t>A(n) personal history of same intervention exposure population statistic that is the proportion of individuals having a personal history of same intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -34282,7 +34282,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>A personal history part of intervention exposure population statistic that is the mean value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the mean value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -34333,7 +34333,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>A personal history part of intervention exposure population statistic that is the minimum value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the minimum value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -34384,7 +34384,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>A personal history part of intervention exposure population statistic that is the maximum value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the maximum value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>A personal history part of intervention exposure population statistic that is the median value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the median value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
@@ -34486,7 +34486,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>A personal history part of intervention exposure population statistic that is the percentage value of personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the percentage value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -34537,7 +34537,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>A personal history part of intervention exposure population statistic that is the proportion of individuals having a personal history part of intervention exposure in the population.</t>
+          <t>A(n) personal history part of intervention exposure population statistic that is the proportion of individuals having a personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -34639,7 +34639,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>A personal psychological attribute population statistic that is the mean value of personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the mean value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -34690,7 +34690,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>A personal psychological attribute population statistic that is the minimum value of personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the minimum value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -34741,7 +34741,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>A personal psychological attribute population statistic that is the maximum value of personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the maximum value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -34792,7 +34792,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>A personal psychological attribute population statistic that is the median value of personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the median value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -34843,7 +34843,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>A personal psychological attribute population statistic that is the percentage value of personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the percentage value of personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -34894,7 +34894,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>A personal psychological attribute population statistic that is the proportion of individuals having a personal psychological attribute in the population.</t>
+          <t>A(n) personal psychological attribute population statistic that is the proportion of individuals having a personal psychological attribute in the population.</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -34996,7 +34996,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>A personal vulnerability population statistic that is the mean value of personal vulnerability in the population.</t>
+          <t>A(n) personal vulnerability population statistic that is the mean value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -35047,7 +35047,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>A personal vulnerability population statistic that is the minimum value of personal vulnerability in the population.</t>
+          <t>A(n) personal vulnerability population statistic that is the minimum value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -35098,7 +35098,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>A personal vulnerability population statistic that is the maximum value of personal vulnerability in the population.</t>
+          <t>A(n) personal vulnerability population statistic that is the maximum value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -35149,7 +35149,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>A personal vulnerability population statistic that is the median value of personal vulnerability in the population.</t>
+          <t>A(n) personal vulnerability population statistic that is the median value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -35200,7 +35200,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>A personal vulnerability population statistic that is the percentage value of personal vulnerability in the population.</t>
+          <t>A(n) personal vulnerability population statistic that is the percentage value of personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -35251,7 +35251,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>A personal vulnerability population statistic that is the proportion of individuals having a personal vulnerability in the population.</t>
+          <t>A(n) personal vulnerability population statistic that is the proportion of individuals having a personal vulnerability in the population.</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -35353,7 +35353,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>A personal vulnerability to harmful behaviour population statistic that is the mean value of personal vulnerability to harmful behaviour in the population.</t>
+          <t>A(n) personal vulnerability to harmful behaviour population statistic that is the mean value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -35404,7 +35404,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>A personal vulnerability to harmful behaviour population statistic that is the minimum value of personal vulnerability to harmful behaviour in the population.</t>
+          <t>A(n) personal vulnerability to harmful behaviour population statistic that is the minimum value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -35455,7 +35455,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>A personal vulnerability to harmful behaviour population statistic that is the maximum value of personal vulnerability to harmful behaviour in the population.</t>
+          <t>A(n) personal vulnerability to harmful behaviour population statistic that is the maximum value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -35506,7 +35506,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>A personal vulnerability to harmful behaviour population statistic that is the median value of personal vulnerability to harmful behaviour in the population.</t>
+          <t>A(n) personal vulnerability to harmful behaviour population statistic that is the median value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -35557,7 +35557,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>A personal vulnerability to harmful behaviour population statistic that is the percentage value of personal vulnerability to harmful behaviour in the population.</t>
+          <t>A(n) personal vulnerability to harmful behaviour population statistic that is the percentage value of personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -35608,7 +35608,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>A personal vulnerability to harmful behaviour population statistic that is the proportion of individuals having a personal vulnerability to harmful behaviour in the population.</t>
+          <t>A(n) personal vulnerability to harmful behaviour population statistic that is the proportion of individuals having a personal vulnerability to harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -35710,7 +35710,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>A place of residence population statistic that is the percentage of people that have a place of residence in the population.</t>
+          <t>A(n) place of residence population statistic that is the percentage of people that have a place of residence in the population.</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -35761,7 +35761,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>A place of residence population statistic that is the proportion of people that have a place of residence in the population.</t>
+          <t>A(n) place of residence population statistic that is the proportion of people that have a place of residence in the population.</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -35863,7 +35863,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>A policy holder role population statistic that is the percentage of people that have a policy holder role in the population.</t>
+          <t>A(n) policy holder role population statistic that is the percentage of people that have a policy holder role in the population.</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -35914,7 +35914,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>A policy holder role population statistic that is the proportion of people that have a policy holder role in the population.</t>
+          <t>A(n) policy holder role population statistic that is the proportion of people that have a policy holder role in the population.</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -36016,7 +36016,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>A preschool student role population statistic that is the percentage of people that have a preschool student role in the population.</t>
+          <t>A(n) preschool student role population statistic that is the percentage of people that have a preschool student role in the population.</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -36067,7 +36067,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>A preschool student role population statistic that is the proportion of people that have a preschool student role in the population.</t>
+          <t>A(n) preschool student role population statistic that is the proportion of people that have a preschool student role in the population.</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -36169,7 +36169,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>A protective factor for harmful behaviour population statistic that is the mean value of protective factor for harmful behaviour in the population.</t>
+          <t>A(n) protective factor for harmful behaviour population statistic that is the mean value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -36220,7 +36220,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>A protective factor for harmful behaviour population statistic that is the minimum value of protective factor for harmful behaviour in the population.</t>
+          <t>A(n) protective factor for harmful behaviour population statistic that is the minimum value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -36271,7 +36271,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>A protective factor for harmful behaviour population statistic that is the maximum value of protective factor for harmful behaviour in the population.</t>
+          <t>A(n) protective factor for harmful behaviour population statistic that is the maximum value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -36322,7 +36322,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>A protective factor for harmful behaviour population statistic that is the median value of protective factor for harmful behaviour in the population.</t>
+          <t>A(n) protective factor for harmful behaviour population statistic that is the median value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -36373,7 +36373,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>A protective factor for harmful behaviour population statistic that is the percentage value of protective factor for harmful behaviour in the population.</t>
+          <t>A(n) protective factor for harmful behaviour population statistic that is the percentage value of protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -36424,7 +36424,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>A protective factor for harmful behaviour population statistic that is the proportion of individuals having a protective factor for harmful behaviour in the population.</t>
+          <t>A(n) protective factor for harmful behaviour population statistic that is the proportion of individuals having a protective factor for harmful behaviour in the population.</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -36526,7 +36526,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>A quantity of valuable material resource owned population statistic that is the mean number of quantity of valuable material resource owned in the population.</t>
+          <t>A(n) quantity of valuable material resource owned population statistic that is the mean number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -36577,7 +36577,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>A quantity of valuable material resource owned population statistic that is the minimum number of quantity of valuable material resource owned in the population.</t>
+          <t>A(n) quantity of valuable material resource owned population statistic that is the minimum number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
@@ -36628,7 +36628,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>A quantity of valuable material resource owned population statistic that is the maximum number of quantity of valuable material resource owned in the population.</t>
+          <t>A(n) quantity of valuable material resource owned population statistic that is the maximum number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -36679,7 +36679,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>A quantity of valuable material resource owned population statistic that is the median number of quantity of valuable material resource owned in the population.</t>
+          <t>A(n) quantity of valuable material resource owned population statistic that is the median number of quantity of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -36781,7 +36781,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>A queer population statistic that is the percentage of people that are queer in the population.</t>
+          <t>A(n) queer population statistic that is the percentage of people that are queer in the population.</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -36832,7 +36832,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>A queer population statistic that is the proportion of people that are queer in the population.</t>
+          <t>A(n) queer population statistic that is the proportion of people that are queer in the population.</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -36934,7 +36934,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>A questioning sexual orientation population statistic that is the percentage of people that are questioning sexual orientation in the population.</t>
+          <t>A(n) questioning sexual orientation population statistic that is the percentage of people that are questioning sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -36985,7 +36985,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>A questioning sexual orientation population statistic that is the proportion of people that are questioning sexual orientation in the population.</t>
+          <t>A(n) questioning sexual orientation population statistic that is the proportion of people that are questioning sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -37087,7 +37087,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>A relationship status population statistic that is the percentage of people that have a relationship status in the population.</t>
+          <t>A(n) relationship status population statistic that is the percentage of people that have a relationship status in the population.</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -37138,7 +37138,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>A relationship status population statistic that is the proportion of people that have a relationship status in the population.</t>
+          <t>A(n) relationship status population statistic that is the proportion of people that have a relationship status in the population.</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -37240,7 +37240,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>A religious group membership population statistic that is the percentage of people that have a religious group membership in the population.</t>
+          <t>A(n) religious group membership population statistic that is the percentage of people that have a religious group membership in the population.</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -37291,7 +37291,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>A religious group membership population statistic that is the proportion of people that have a religious group membership in the population.</t>
+          <t>A(n) religious group membership population statistic that is the proportion of people that have a religious group membership in the population.</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -37393,7 +37393,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>A rent-free occupier population statistic that is the percentage of people that are a rent-free occupier in the population.</t>
+          <t>A(n) rent-free occupier population statistic that is the percentage of people that are a rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -37444,7 +37444,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>A rent-free occupier population statistic that is the proportion of people that are a rent-free occupier in the population.</t>
+          <t>A(n) rent-free occupier population statistic that is the proportion of people that are a rent-free occupier in the population.</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -37546,7 +37546,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>A rent-free occupier without owner's permission population statistic that is the percentage of people that are a rent-free occupier without owner's permission in the population.</t>
+          <t>A(n) rent-free occupier without owner's permission population statistic that is the percentage of people that are a rent-free occupier without owner's permission in the population.</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -37597,7 +37597,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>A rent-free occupier without owner's permission population statistic that is the proportion of people that are a rent-free occupier without owner's permission in the population.</t>
+          <t>A(n) rent-free occupier without owner's permission population statistic that is the proportion of people that are a rent-free occupier without owner's permission in the population.</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -37699,7 +37699,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>A renter population statistic that is the percentage of people that are a renter in the population.</t>
+          <t>A(n) renter population statistic that is the percentage of people that are a renter in the population.</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -37750,7 +37750,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>A renter population statistic that is the proportion of people that are a renter in the population.</t>
+          <t>A(n) renter population statistic that is the proportion of people that are a renter in the population.</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -37852,7 +37852,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>A renter of housing from a social provider population statistic that is the percentage of people that are a renter of housing from a social provider in the population.</t>
+          <t>A(n) renter of housing from a social provider population statistic that is the percentage of people that are a renter of housing from a social provider in the population.</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -37903,7 +37903,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>A renter of housing from a social provider population statistic that is the proportion of people that are a renter of housing from a social provider in the population.</t>
+          <t>A(n) renter of housing from a social provider population statistic that is the proportion of people that are a renter of housing from a social provider in the population.</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -38005,7 +38005,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>A residential facility owner population statistic that is the percentage of people that are a residential facility owner in the population.</t>
+          <t>A(n) residential facility owner population statistic that is the percentage of people that are a residential facility owner in the population.</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -38056,7 +38056,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>A residential facility owner population statistic that is the proportion of people that are a residential facility owner in the population.</t>
+          <t>A(n) residential facility owner population statistic that is the proportion of people that are a residential facility owner in the population.</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -38158,7 +38158,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>A retired status population statistic that is the percentage of people that have retired status in the population.</t>
+          <t>A(n) retired status population statistic that is the percentage of people that have retired status in the population.</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -38209,7 +38209,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>A retired status population statistic that is the proportion of people that have retired status in the population.</t>
+          <t>A(n) retired status population statistic that is the proportion of people that have retired status in the population.</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -38311,7 +38311,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>A school student role population statistic that is the percentage of people that have a school student role in the population.</t>
+          <t>A(n) school student role population statistic that is the percentage of people that have a school student role in the population.</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -38362,7 +38362,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>A school student role population statistic that is the proportion of people that have a school student role in the population.</t>
+          <t>A(n) school student role population statistic that is the proportion of people that have a school student role in the population.</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -38464,7 +38464,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>A second generation immigrant population statistic that is the percentage of people that are a second generation immigrant in the population.</t>
+          <t>A(n) second generation immigrant population statistic that is the percentage of people that are a second generation immigrant in the population.</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -38515,7 +38515,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>A second generation immigrant population statistic that is the proportion of people that are a second generation immigrant in the population.</t>
+          <t>A(n) second generation immigrant population statistic that is the proportion of people that are a second generation immigrant in the population.</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -38617,7 +38617,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>A self employed status population statistic that is the percentage of people that have self employed status in the population.</t>
+          <t>A(n) self employed status population statistic that is the percentage of people that have self employed status in the population.</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -38668,7 +38668,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>A self employed status population statistic that is the proportion of people that have self employed status in the population.</t>
+          <t>A(n) self employed status population statistic that is the proportion of people that have self employed status in the population.</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
@@ -38770,7 +38770,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>A sexual orientation population statistic that is the percentage of people that are sexual orientation in the population.</t>
+          <t>A(n) sexual orientation population statistic that is the percentage of people that are sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -38821,7 +38821,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>A sexual orientation population statistic that is the proportion of people that are sexual orientation in the population.</t>
+          <t>A(n) sexual orientation population statistic that is the proportion of people that are sexual orientation in the population.</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -38923,7 +38923,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>A sibling population statistic that is the percentage of people that have a sibling in the population.</t>
+          <t>A(n) sibling population statistic that is the percentage of people that have a sibling in the population.</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -38974,7 +38974,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>A sibling population statistic that is the proportion of people that have a sibling in the population.</t>
+          <t>A(n) sibling population statistic that is the proportion of people that have a sibling in the population.</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -39076,7 +39076,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>A single population statistic that is the percentage of people that are single in the population.</t>
+          <t>A(n) single population statistic that is the percentage of people that are single in the population.</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -39127,7 +39127,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>A single population statistic that is the proportion of people that are single in the population.</t>
+          <t>A(n) single population statistic that is the proportion of people that are single in the population.</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -39229,7 +39229,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>A socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
+          <t>A(n) socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -39280,7 +39280,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>A socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
+          <t>A(n) socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -39382,7 +39382,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>A socioeconomic status score population statistic that is the mean value of socioeconomic status score in the population.</t>
+          <t>A(n) socioeconomic status score population statistic that is the mean value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -39433,7 +39433,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>A socioeconomic status score population statistic that is the minimum value of socioeconomic status score in the population.</t>
+          <t>A(n) socioeconomic status score population statistic that is the minimum value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -39484,7 +39484,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>A socioeconomic status score population statistic that is the maximum value of socioeconomic status score in the population.</t>
+          <t>A(n) socioeconomic status score population statistic that is the maximum value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
@@ -39535,7 +39535,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>A socioeconomic status score population statistic that is the median value of socioeconomic status score in the population.</t>
+          <t>A(n) socioeconomic status score population statistic that is the median value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -39637,7 +39637,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>A stay at home parent or guardian status population statistic that is the percentage of people that have stay at home parent or guardian status in the population.</t>
+          <t>A(n) stay at home parent or guardian status population statistic that is the percentage of people that have stay at home parent or guardian status in the population.</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -39688,7 +39688,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>A stay at home parent or guardian status population statistic that is the proportion of people that have stay at home parent or guardian status in the population.</t>
+          <t>A(n) stay at home parent or guardian status population statistic that is the proportion of people that have stay at home parent or guardian status in the population.</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
@@ -39790,7 +39790,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>A step-parent population statistic that is the percentage of people that are a step-parent in the population.</t>
+          <t>A(n) step-parent population statistic that is the percentage of people that are a step-parent in the population.</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
@@ -39841,7 +39841,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>A step-parent population statistic that is the proportion of people that are a step-parent in the population.</t>
+          <t>A(n) step-parent population statistic that is the proportion of people that are a step-parent in the population.</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -39943,7 +39943,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>A step-sibling population statistic that is the percentage of people that are a step-sibling in the population.</t>
+          <t>A(n) step-sibling population statistic that is the percentage of people that are a step-sibling in the population.</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
@@ -39994,7 +39994,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>A step-sibling population statistic that is the proportion of people that are a step-sibling in the population.</t>
+          <t>A(n) step-sibling population statistic that is the proportion of people that are a step-sibling in the population.</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
@@ -40096,7 +40096,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>A stepbrother population statistic that is the percentage of people that are a stepbrother in the population.</t>
+          <t>A(n) stepbrother population statistic that is the percentage of people that are a stepbrother in the population.</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
@@ -40147,7 +40147,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>A stepbrother population statistic that is the proportion of people that are a stepbrother in the population.</t>
+          <t>A(n) stepbrother population statistic that is the proportion of people that are a stepbrother in the population.</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
@@ -40249,7 +40249,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>A stepchild population statistic that is the percentage of people that are a stepchild in the population.</t>
+          <t>A(n) stepchild population statistic that is the percentage of people that are a stepchild in the population.</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
@@ -40300,7 +40300,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>A stepchild population statistic that is the proportion of people that are a stepchild in the population.</t>
+          <t>A(n) stepchild population statistic that is the proportion of people that are a stepchild in the population.</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
@@ -40402,7 +40402,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>A stepdaughter population statistic that is the percentage of people that are a stepdaughter in the population.</t>
+          <t>A(n) stepdaughter population statistic that is the percentage of people that are a stepdaughter in the population.</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
@@ -40453,7 +40453,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>A stepdaughter population statistic that is the proportion of people that are a stepdaughter in the population.</t>
+          <t>A(n) stepdaughter population statistic that is the proportion of people that are a stepdaughter in the population.</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -40555,7 +40555,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>A stepfather population statistic that is the percentage of people that are a stepfather in the population.</t>
+          <t>A(n) stepfather population statistic that is the percentage of people that are a stepfather in the population.</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -40606,7 +40606,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>A stepfather population statistic that is the proportion of people that are a stepfather in the population.</t>
+          <t>A(n) stepfather population statistic that is the proportion of people that are a stepfather in the population.</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -40708,7 +40708,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>A stepmother population statistic that is the percentage of people that are a stepmother in the population.</t>
+          <t>A(n) stepmother population statistic that is the percentage of people that are a stepmother in the population.</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -40759,7 +40759,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>A stepmother population statistic that is the proportion of people that are a stepmother in the population.</t>
+          <t>A(n) stepmother population statistic that is the proportion of people that are a stepmother in the population.</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -40861,7 +40861,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>A stepsister population statistic that is the percentage of people that are a stepsister in the population.</t>
+          <t>A(n) stepsister population statistic that is the percentage of people that are a stepsister in the population.</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
@@ -40912,7 +40912,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>A stepsister population statistic that is the proportion of people that are a stepsister in the population.</t>
+          <t>A(n) stepsister population statistic that is the proportion of people that are a stepsister in the population.</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
@@ -41014,7 +41014,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>A stepson population statistic that is the percentage of people that are a stepson in the population.</t>
+          <t>A(n) stepson population statistic that is the percentage of people that are a stepson in the population.</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
@@ -41065,7 +41065,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>A stepson population statistic that is the proportion of people that are a stepson in the population.</t>
+          <t>A(n) stepson population statistic that is the proportion of people that are a stepson in the population.</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
@@ -41167,7 +41167,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>A student or trainee role population statistic that is the percentage of people that have a student or trainee role in the population.</t>
+          <t>A(n) student or trainee role population statistic that is the percentage of people that have a student or trainee role in the population.</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
@@ -41218,7 +41218,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>A student or trainee role population statistic that is the proportion of people that have a student or trainee role in the population.</t>
+          <t>A(n) student or trainee role population statistic that is the proportion of people that have a student or trainee role in the population.</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
@@ -41320,7 +41320,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>A teenager population statistic that is the percentage of people that are a teenager in the population.</t>
+          <t>A(n) teenager population statistic that is the percentage of people that are a teenager in the population.</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>A teenager population statistic that is the proportion of people that are a teenager in the population.</t>
+          <t>A(n) teenager population statistic that is the proportion of people that are a teenager in the population.</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
@@ -41473,7 +41473,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>A transgender population statistic that is the percentage of people that are transgender in the population.</t>
+          <t>A(n) transgender population statistic that is the percentage of people that are transgender in the population.</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
@@ -41524,7 +41524,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>A transgender population statistic that is the proportion of people that are transgender in the population.</t>
+          <t>A(n) transgender population statistic that is the proportion of people that are transgender in the population.</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
@@ -41626,7 +41626,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>A twin population statistic that is the percentage of people that are a twin in the population.</t>
+          <t>A(n) twin population statistic that is the percentage of people that are a twin in the population.</t>
         </is>
       </c>
       <c r="D845" t="inlineStr">
@@ -41677,7 +41677,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>A twin population statistic that is the proportion of people that are a twin in the population.</t>
+          <t>A(n) twin population statistic that is the proportion of people that are a twin in the population.</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
@@ -41779,7 +41779,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>A unawareness of a behaviour population statistic that is the percentage of people that have a unawareness of a behaviour in the population.</t>
+          <t>A(n) unawareness of a behaviour population statistic that is the percentage of people that have a unawareness of a behaviour in the population.</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
@@ -41830,7 +41830,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>A unawareness of a behaviour population statistic that is the proportion of people that have a unawareness of a behaviour in the population.</t>
+          <t>A(n) unawareness of a behaviour population statistic that is the proportion of people that have a unawareness of a behaviour in the population.</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -41932,7 +41932,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>A uncle population statistic that is the percentage of people that are a uncle in the population.</t>
+          <t>A(n) uncle population statistic that is the percentage of people that are a uncle in the population.</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
@@ -41983,7 +41983,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>A uncle population statistic that is the proportion of people that are a uncle in the population.</t>
+          <t>A(n) uncle population statistic that is the proportion of people that are a uncle in the population.</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -42085,7 +42085,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>A undecidedness about enacting a behaviour population statistic that is the percentage of people that have a undecidedness about enacting a behaviour in the population.</t>
+          <t>A(n) undecidedness about enacting a behaviour population statistic that is the percentage of people that have a undecidedness about enacting a behaviour in the population.</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
@@ -42136,7 +42136,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>A undecidedness about enacting a behaviour population statistic that is the proportion of people that have a undecidedness about enacting a behaviour in the population.</t>
+          <t>A(n) undecidedness about enacting a behaviour population statistic that is the proportion of people that have a undecidedness about enacting a behaviour in the population.</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -42238,7 +42238,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>A undergraduate student role population statistic that is the percentage of people that have a undergraduate student role in the population.</t>
+          <t>A(n) undergraduate student role population statistic that is the percentage of people that have a undergraduate student role in the population.</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -42289,7 +42289,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>A undergraduate student role population statistic that is the proportion of people that have a undergraduate student role in the population.</t>
+          <t>A(n) undergraduate student role population statistic that is the proportion of people that have a undergraduate student role in the population.</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
@@ -42391,7 +42391,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>A unemployed population statistic that is the percentage of people that are unemployed in the population.</t>
+          <t>A(n) unemployed population statistic that is the percentage of people that are unemployed in the population.</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -42442,7 +42442,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>A unemployed population statistic that is the proportion of people that are unemployed in the population.</t>
+          <t>A(n) unemployed population statistic that is the proportion of people that are unemployed in the population.</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
@@ -42544,7 +42544,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>A unpaid carer for an adult status population statistic that is the percentage of people that have unpaid carer for an adult status in the population.</t>
+          <t>A(n) unpaid carer for an adult status population statistic that is the percentage of people that have unpaid carer for an adult status in the population.</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
@@ -42595,7 +42595,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>A unpaid carer for an adult status population statistic that is the proportion of people that have unpaid carer for an adult status in the population.</t>
+          <t>A(n) unpaid carer for an adult status population statistic that is the proportion of people that have unpaid carer for an adult status in the population.</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
@@ -42697,7 +42697,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>A value of valuable material resource owned population statistic that is the mean value of value of valuable material resource owned in the population.</t>
+          <t>A(n) value of valuable material resource owned population statistic that is the mean value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
@@ -42748,7 +42748,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>A value of valuable material resource owned population statistic that is the minimum value of value of valuable material resource owned in the population.</t>
+          <t>A(n) value of valuable material resource owned population statistic that is the minimum value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
@@ -42799,7 +42799,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>A value of valuable material resource owned population statistic that is the maximum value of value of valuable material resource owned in the population.</t>
+          <t>A(n) value of valuable material resource owned population statistic that is the maximum value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D868" t="inlineStr">
@@ -42850,7 +42850,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>A value of valuable material resource owned population statistic that is the median value of value of valuable material resource owned in the population.</t>
+          <t>A(n) value of valuable material resource owned population statistic that is the median value of value of valuable material resource owned in the population.</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
@@ -42952,7 +42952,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>A vocational training student or trainee role population statistic that is the percentage of people that have a vocational training student or trainee role in the population.</t>
+          <t>A(n) vocational training student or trainee role population statistic that is the percentage of people that have a vocational training student or trainee role in the population.</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
@@ -43003,7 +43003,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>A vocational training student or trainee role population statistic that is the proportion of people that have a vocational training student or trainee role in the population.</t>
+          <t>A(n) vocational training student or trainee role population statistic that is the proportion of people that have a vocational training student or trainee role in the population.</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
@@ -43105,7 +43105,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>A voluntary worker status population statistic that is the percentage of people that have voluntary worker status in the population.</t>
+          <t>A(n) voluntary worker status population statistic that is the percentage of people that have voluntary worker status in the population.</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
@@ -43156,7 +43156,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>A voluntary worker status population statistic that is the proportion of people that have voluntary worker status in the population.</t>
+          <t>A(n) voluntary worker status population statistic that is the proportion of people that have voluntary worker status in the population.</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
@@ -43258,7 +43258,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>A widowed population statistic that is the percentage of people that are widowed in the population.</t>
+          <t>A(n) widowed population statistic that is the percentage of people that are widowed in the population.</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
@@ -43309,7 +43309,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>A widowed population statistic that is the proportion of people that are widowed in the population.</t>
+          <t>A(n) widowed population statistic that is the proportion of people that are widowed in the population.</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
